--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/17/word_level_predictions_17.xlsx
@@ -3674,106 +3674,106 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5286,158 +5286,158 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>6</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>3</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>6</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>4</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" t="n">
         <v>6</v>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" t="n">
         <v>5</v>
       </c>
-      <c r="E96" s="2" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11422,364 +11422,364 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="F212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/17/word_level_predictions_17.xlsx
@@ -3674,106 +3674,106 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>4</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>2</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>3</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5286,158 +5286,158 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11422,364 +11422,364 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>13</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>5</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" s="2" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>13</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>6</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>13</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>7</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>13</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>8</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>13</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>9</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>13</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>10</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>13</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>11</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" s="2" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
